--- a/biology/Botanique/Acostia_gracilis/Acostia_gracilis.xlsx
+++ b/biology/Botanique/Acostia_gracilis/Acostia_gracilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acostia gracilis est une espèce de plantes monocotylédones de la famille des Poaceae, originaire d'Amérique du Sud. C'est l'unique espèce du genre Acostia (genre monotypique).
-Cette espèce endémique de l'Équateur est classée dans la liste rouge de l'UICN (Union internationale pour la conservation de la nature) comme espèce en danger[3].
+Cette espèce endémique de l'Équateur est classée dans la liste rouge de l'UICN (Union internationale pour la conservation de la nature) comme espèce en danger.
 </t>
         </is>
       </c>
@@ -512,14 +524,86 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Acostia gracilis a été décrite en 1968 par Jason Richard Swallen, botaniste américain spécialiste des graminées, et publiée dans le Boletín de la Sociedad Argentina de Botánica 12: 109–110. 1968[4].
-Étymologie
-Le nom générique « Acostia » est un hommage à Misael Acosta Solís, naturaliste équatorien, qui fut le collecteur du spécimen-type.
-L'épithète spécifique « gracilis » est un terme latin qui signifie « mince, grêle »[5].
-Synonymes
-Selon Catalogue of Life                                   (23 mars 2017)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Acostia gracilis a été décrite en 1968 par Jason Richard Swallen, botaniste américain spécialiste des graminées, et publiée dans le Boletín de la Sociedad Argentina de Botánica 12: 109–110. 1968.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acostia_gracilis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acostia_gracilis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Acostia » est un hommage à Misael Acosta Solís, naturaliste équatorien, qui fut le collecteur du spécimen-type.
+L'épithète spécifique « gracilis » est un terme latin qui signifie « mince, grêle ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acostia_gracilis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acostia_gracilis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 mars 2017) :
 Panicum acostia R.D.Webster</t>
         </is>
       </c>
